--- a/biology/Histoire de la zoologie et de la botanique/George_Marx/George_Marx.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Marx/George_Marx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Marx est un zoologiste américain d’origine allemande, né le 22 juin 1838 à Laubach (Grand-duché de Hesse) et mort le 3 janvier 1895 à Washington.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Darmstadt. Passionné par la botanique, il abandonne l’idée d’entrer dans les ordres pour suivre des études de pharmacien. Il part en 1860 pour les États-Unis où il travaille comme pharmacien volontaire dans l’armée durant la Guerre de Sécession. Après celle-ci, il s’installe à son compte d’abord à New York, de 1862 à 1865, puis à Philadelphie de 1865 à 1878.
 C’est au moment de son installation à Philadelphie qu’il s’intéresse aux arachnides, et notamment aux araignées. En 1878, il travaille pour le ministère de l’agriculture. À partir de 1889, jusqu’à sa retraite, il y dirige le service des illustrations.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Bonnet (1945). Bibliographia araneorum, Les frères Doularoude (Toulouse).
 </t>
